--- a/df_total.xlsx
+++ b/df_total.xlsx
@@ -18081,7 +18081,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>MdCC</t>
+          <t>MDCC</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -74861,6 +74861,11 @@
       <c r="A1553" t="inlineStr">
         <is>
           <t>Carvalho, P</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>PRICARV</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
